--- a/FinalReport/kousuiryou.xlsx
+++ b/FinalReport/kousuiryou.xlsx
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2449,7 +2449,7 @@
         <v>1425</v>
       </c>
       <c r="H48">
-        <v>22584</v>
+        <v>2584</v>
       </c>
       <c r="I48">
         <v>2071</v>
